--- a/biology/Zoologie/Geri_et_Freki/Geri_et_Freki.xlsx
+++ b/biology/Zoologie/Geri_et_Freki/Geri_et_Freki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geri et Freki sont les loups d'Odin, à qui le dieu donne sa nourriture lorsqu'il est au Valhalla, lui-même se contentant de vin[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geri et Freki sont les loups d'Odin, à qui le dieu donne sa nourriture lorsqu'il est au Valhalla, lui-même se contentant de vin.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le Traité de mythologie scandinave en 1871, les deux noms Geri et Freki signifient « vorace (dévorer, engloutir, détruire en mangeant) », ou encore respectivement « avide » et « violent »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le Traité de mythologie scandinave en 1871, les deux noms Geri et Freki signifient « vorace (dévorer, engloutir, détruire en mangeant) », ou encore respectivement « avide » et « violent ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Mentions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les noms des deux loups sont utilisés comme noms communs, synonymes de « loup », tant en poésie scaldique[3], où ils apparaissent comme éléments de kenningar[4], qu'en poésie eddique[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms des deux loups sont utilisés comme noms communs, synonymes de « loup », tant en poésie scaldique, où ils apparaissent comme éléments de kenningar, qu'en poésie eddique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Représentant (non exclusif) des fonctions des Dieux de la mort et de la guerre, Odin est associé au loup, animal réputé se repaître des cadavres sur les champs de bataille[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Représentant (non exclusif) des fonctions des Dieux de la mort et de la guerre, Odin est associé au loup, animal réputé se repaître des cadavres sur les champs de bataille.
 </t>
         </is>
       </c>
